--- a/Data/EXCEL/excel_PoC.xlsx
+++ b/Data/EXCEL/excel_PoC.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaras\Documents\GitHub\PPtology\Data\EXCEL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D83C98-5765-4BE6-A604-73FD173206B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,60 +26,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condenser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feedwater pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pressure_bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massflow_kg_s</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>pressure_bar</t>
+  </si>
+  <si>
+    <t>temperature_C</t>
+  </si>
+  <si>
+    <t>massflow_kg_s</t>
+  </si>
+  <si>
+    <t>PoC Boiler</t>
+  </si>
+  <si>
+    <t>PoC Turbine</t>
+  </si>
+  <si>
+    <t>PoC Condenser</t>
+  </si>
+  <si>
+    <t>PowerPlant</t>
+  </si>
+  <si>
+    <t>PoC Plant</t>
+  </si>
+  <si>
+    <t>PoC Feedwater pump</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#.0"/>
-    <numFmt numFmtId="166" formatCode="0.##"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#.0"/>
+    <numFmt numFmtId="165" formatCode="0.##"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -83,22 +93,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -106,7 +108,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,9 +127,15 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -135,77 +143,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -264,60 +228,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -349,7 +329,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -373,7 +353,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -433,237 +413,240 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>261</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
         <v>176</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="C4" s="3">
         <v>118</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>501</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="C5">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
         <v>561</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="C6" s="3">
         <v>70</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1048576" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.17"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    </row>
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>261</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>176</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>92</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>538</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>386.46</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>176</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3">
         <v>501</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>0.85</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="7">
         <v>94</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3">
         <v>386.46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>501</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>561</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>0.85</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>35</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>386.46</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>561</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3">
         <v>261</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="7">
         <v>120</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>90</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3">
         <v>386.46</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Data/EXCEL/excel_PoC.xlsx
+++ b/Data/EXCEL/excel_PoC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaras\Documents\GitHub\PPtology\Data\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D83C98-5765-4BE6-A604-73FD173206B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8128E1-A19B-4249-9562-4A07009C3831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>nodes</t>
   </si>
@@ -37,12 +37,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>edges</t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
@@ -74,17 +68,166 @@
   </si>
   <si>
     <t>PoC Feedwater pump</t>
+  </si>
+  <si>
+    <t>N052271</t>
+  </si>
+  <si>
+    <t>PP description</t>
+  </si>
+  <si>
+    <t>Device description</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>386.46</t>
+  </si>
+  <si>
+    <t>pipe_id</t>
+  </si>
+  <si>
+    <t>pipe_261_176</t>
+  </si>
+  <si>
+    <t>pipe_176_501</t>
+  </si>
+  <si>
+    <t>pipe_501_561</t>
+  </si>
+  <si>
+    <t>pipe_561_261</t>
+  </si>
+  <si>
+    <t>state_id</t>
+  </si>
+  <si>
+    <t>pressure_id</t>
+  </si>
+  <si>
+    <t>temp_id</t>
+  </si>
+  <si>
+    <t>massflow_id</t>
+  </si>
+  <si>
+    <t>Case_id</t>
+  </si>
+  <si>
+    <t>N052271_1</t>
+  </si>
+  <si>
+    <t>st_N052271-1_261_176</t>
+  </si>
+  <si>
+    <t>st_N052271-1_176_501</t>
+  </si>
+  <si>
+    <t>st_N052271-1_501_561</t>
+  </si>
+  <si>
+    <t>st_N052271-1_561_261</t>
+  </si>
+  <si>
+    <t>p_N052271-1_261_177</t>
+  </si>
+  <si>
+    <t>p_N052271-1_176_502</t>
+  </si>
+  <si>
+    <t>p_N052271-1_501_562</t>
+  </si>
+  <si>
+    <t>p_N052271-1_561_262</t>
+  </si>
+  <si>
+    <t>t_N052271-1_261_178</t>
+  </si>
+  <si>
+    <t>t_N052271-1_176_503</t>
+  </si>
+  <si>
+    <t>t_N052271-1_501_563</t>
+  </si>
+  <si>
+    <t>t_N052271-1_561_263</t>
+  </si>
+  <si>
+    <t>mf_N052271-1_261_179</t>
+  </si>
+  <si>
+    <t>mf_N052271-1_176_504</t>
+  </si>
+  <si>
+    <t>mf_N052271-1_501_564</t>
+  </si>
+  <si>
+    <t>mf_N052271-1_561_264</t>
+  </si>
+  <si>
+    <t>pipe_in_case</t>
+  </si>
+  <si>
+    <t>N052271_1_pipe_261_176</t>
+  </si>
+  <si>
+    <t>N052271_1_pipe_176_501</t>
+  </si>
+  <si>
+    <t>N052271_1_pipe_501_561</t>
+  </si>
+  <si>
+    <t>N052271_1_pipe_561_261</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#.0"/>
-    <numFmt numFmtId="165" formatCode="0.##"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -103,6 +246,12 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -146,22 +295,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,108 +569,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>261</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>176</v>
-      </c>
-      <c r="C4" s="3">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>501</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
-        <v>561</v>
-      </c>
-      <c r="C6" s="3">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1048576" ht="13.2" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="1048576" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -534,118 +695,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:L1048575"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>261</v>
-      </c>
-      <c r="B3">
-        <v>176</v>
-      </c>
-      <c r="C3" s="5">
-        <v>92</v>
-      </c>
-      <c r="D3" s="5">
-        <v>538</v>
-      </c>
-      <c r="E3">
-        <v>386.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>176</v>
-      </c>
-      <c r="B4" s="3">
-        <v>501</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="D4" s="7">
-        <v>94</v>
-      </c>
-      <c r="E4" s="3">
-        <v>386.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>501</v>
-      </c>
-      <c r="B5">
-        <v>561</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="D5" s="5">
+    </row>
+    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="E5">
-        <v>386.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>561</v>
-      </c>
-      <c r="B6" s="3">
-        <v>261</v>
-      </c>
-      <c r="C6" s="7">
-        <v>120</v>
-      </c>
-      <c r="D6" s="7">
-        <v>90</v>
-      </c>
-      <c r="E6" s="3">
-        <v>386.46</v>
-      </c>
-    </row>
-    <row r="1048576" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="1048575" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Data/EXCEL/excel_PoC.xlsx
+++ b/Data/EXCEL/excel_PoC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaras\Documents\GitHub\PPtology\Data\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8128E1-A19B-4249-9562-4A07009C3831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558F2C7D-4267-4610-A696-781344BFB30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>nodes</t>
   </si>
@@ -206,21 +206,6 @@
   </si>
   <si>
     <t>mf_N052271-1_561_264</t>
-  </si>
-  <si>
-    <t>pipe_in_case</t>
-  </si>
-  <si>
-    <t>N052271_1_pipe_261_176</t>
-  </si>
-  <si>
-    <t>N052271_1_pipe_176_501</t>
-  </si>
-  <si>
-    <t>N052271_1_pipe_501_561</t>
-  </si>
-  <si>
-    <t>N052271_1_pipe_561_261</t>
   </si>
 </sst>
 </file>
@@ -697,15 +682,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
@@ -721,9 +706,7 @@
       <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
@@ -759,9 +742,6 @@
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -797,9 +777,6 @@
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
@@ -835,9 +812,6 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
@@ -872,9 +846,6 @@
       </c>
       <c r="B5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>

--- a/Data/EXCEL/excel_PoC.xlsx
+++ b/Data/EXCEL/excel_PoC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaras\Documents\GitHub\PPtology\Data\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558F2C7D-4267-4610-A696-781344BFB30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A37E7C-EDAD-4B51-B552-EA51BDDFE285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
   <si>
     <t>nodes</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Case_id</t>
   </si>
   <si>
-    <t>N052271_1</t>
-  </si>
-  <si>
     <t>st_N052271-1_261_176</t>
   </si>
   <si>
@@ -206,6 +203,60 @@
   </si>
   <si>
     <t>mf_N052271-1_561_264</t>
+  </si>
+  <si>
+    <t>gl278.v01</t>
+  </si>
+  <si>
+    <t>gl279.v01</t>
+  </si>
+  <si>
+    <t>152.65</t>
+  </si>
+  <si>
+    <t>152.66</t>
+  </si>
+  <si>
+    <t>152.67</t>
+  </si>
+  <si>
+    <t>152.68</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Turbine 100%</t>
+  </si>
+  <si>
+    <t>Turbine 50%</t>
+  </si>
+  <si>
+    <t>Bypass</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>gl280.v01</t>
   </si>
 </sst>
 </file>
@@ -683,17 +734,18 @@
   <dimension ref="A1:L1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
     <col min="10" max="10" width="13.21875" customWidth="1"/>
     <col min="11" max="11" width="14.44140625" customWidth="1"/>
     <col min="12" max="12" width="15.21875" customWidth="1"/>
@@ -740,19 +792,22 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -775,19 +830,22 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -810,19 +868,22 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>19</v>
@@ -845,19 +906,22 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -876,18 +940,270 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="1048575" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Data/EXCEL/excel_PoC.xlsx
+++ b/Data/EXCEL/excel_PoC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaras\Documents\GitHub\PPtology\Data\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A37E7C-EDAD-4B51-B552-EA51BDDFE285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2912EB-12A5-498D-8916-EB27A9384B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2712" yWindow="1296" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>nodes</t>
   </si>
@@ -157,54 +157,6 @@
     <t>Case_id</t>
   </si>
   <si>
-    <t>st_N052271-1_261_176</t>
-  </si>
-  <si>
-    <t>st_N052271-1_176_501</t>
-  </si>
-  <si>
-    <t>st_N052271-1_501_561</t>
-  </si>
-  <si>
-    <t>st_N052271-1_561_261</t>
-  </si>
-  <si>
-    <t>p_N052271-1_261_177</t>
-  </si>
-  <si>
-    <t>p_N052271-1_176_502</t>
-  </si>
-  <si>
-    <t>p_N052271-1_501_562</t>
-  </si>
-  <si>
-    <t>p_N052271-1_561_262</t>
-  </si>
-  <si>
-    <t>t_N052271-1_261_178</t>
-  </si>
-  <si>
-    <t>t_N052271-1_176_503</t>
-  </si>
-  <si>
-    <t>t_N052271-1_501_563</t>
-  </si>
-  <si>
-    <t>t_N052271-1_561_263</t>
-  </si>
-  <si>
-    <t>mf_N052271-1_261_179</t>
-  </si>
-  <si>
-    <t>mf_N052271-1_176_504</t>
-  </si>
-  <si>
-    <t>mf_N052271-1_501_564</t>
-  </si>
-  <si>
-    <t>mf_N052271-1_561_264</t>
-  </si>
-  <si>
     <t>gl278.v01</t>
   </si>
   <si>
@@ -257,6 +209,141 @@
   </si>
   <si>
     <t>gl280.v01</t>
+  </si>
+  <si>
+    <t>st_gl278.v01_261_176</t>
+  </si>
+  <si>
+    <t>st_gl278.v01_176_501</t>
+  </si>
+  <si>
+    <t>st_gl278.v01_501_561</t>
+  </si>
+  <si>
+    <t>st_gl278.v01_561_261</t>
+  </si>
+  <si>
+    <t>st_gl279.v01_261_176</t>
+  </si>
+  <si>
+    <t>st_gl279.v01_176_501</t>
+  </si>
+  <si>
+    <t>st_gl279.v01_501_561</t>
+  </si>
+  <si>
+    <t>st_gl279.v01_561_261</t>
+  </si>
+  <si>
+    <t>st_gl280.v01_501_561</t>
+  </si>
+  <si>
+    <t>st_gl280.v01_561_261</t>
+  </si>
+  <si>
+    <t>pipe_261_501</t>
+  </si>
+  <si>
+    <t>st_gl280.v01_261_501</t>
+  </si>
+  <si>
+    <t>p_gl280.v01_261_501</t>
+  </si>
+  <si>
+    <t>t_gl280.v01_261_501</t>
+  </si>
+  <si>
+    <t>mf_gl280.v01_261_501</t>
+  </si>
+  <si>
+    <t>p_gl278.v01_261_176</t>
+  </si>
+  <si>
+    <t>t_gl278.v01_261_176</t>
+  </si>
+  <si>
+    <t>mf_gl278.v01_261_176</t>
+  </si>
+  <si>
+    <t>p_gl278.v01_176_501</t>
+  </si>
+  <si>
+    <t>t_gl278.v01_176_501</t>
+  </si>
+  <si>
+    <t>mf_gl278.v01_176_501</t>
+  </si>
+  <si>
+    <t>p_gl278.v01_501_561</t>
+  </si>
+  <si>
+    <t>t_gl278.v01_501_561</t>
+  </si>
+  <si>
+    <t>mf_gl278.v01_501_561</t>
+  </si>
+  <si>
+    <t>p_gl278.v01_561_261</t>
+  </si>
+  <si>
+    <t>t_gl278.v01_561_261</t>
+  </si>
+  <si>
+    <t>mf_gl278.v01_561_261</t>
+  </si>
+  <si>
+    <t>p_gl279.v01_261_176</t>
+  </si>
+  <si>
+    <t>t_gl279.v01_261_176</t>
+  </si>
+  <si>
+    <t>mf_gl279.v01_261_176</t>
+  </si>
+  <si>
+    <t>p_gl279.v01_176_501</t>
+  </si>
+  <si>
+    <t>t_gl279.v01_176_501</t>
+  </si>
+  <si>
+    <t>mf_gl279.v01_176_501</t>
+  </si>
+  <si>
+    <t>p_gl279.v01_501_561</t>
+  </si>
+  <si>
+    <t>t_gl279.v01_501_561</t>
+  </si>
+  <si>
+    <t>mf_gl279.v01_501_561</t>
+  </si>
+  <si>
+    <t>p_gl279.v01_561_261</t>
+  </si>
+  <si>
+    <t>t_gl279.v01_561_261</t>
+  </si>
+  <si>
+    <t>mf_gl279.v01_561_261</t>
+  </si>
+  <si>
+    <t>p_gl280.v01_501_561</t>
+  </si>
+  <si>
+    <t>t_gl280.v01_501_561</t>
+  </si>
+  <si>
+    <t>mf_gl280.v01_501_561</t>
+  </si>
+  <si>
+    <t>p_gl280.v01_561_261</t>
+  </si>
+  <si>
+    <t>t_gl280.v01_561_261</t>
+  </si>
+  <si>
+    <t>mf_gl280.v01_561_261</t>
   </si>
 </sst>
 </file>
@@ -608,7 +695,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -734,7 +821,7 @@
   <dimension ref="A1:L1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -744,8 +831,8 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.21875" customWidth="1"/>
     <col min="11" max="11" width="14.44140625" customWidth="1"/>
     <col min="12" max="12" width="15.21875" customWidth="1"/>
@@ -792,22 +879,22 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -830,22 +917,22 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
@@ -868,22 +955,22 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>19</v>
@@ -906,22 +993,22 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -944,22 +1031,22 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
@@ -971,10 +1058,10 @@
         <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -982,22 +1069,22 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>18</v>
@@ -1006,13 +1093,13 @@
         <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,22 +1107,22 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -1044,13 +1131,13 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,22 +1145,22 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
@@ -1082,36 +1169,36 @@
         <v>17</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>17</v>
@@ -1123,7 +1210,7 @@
         <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>32</v>
@@ -1134,22 +1221,22 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -1161,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>32</v>
@@ -1172,22 +1259,22 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
@@ -1196,10 +1283,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>32</v>
